--- a/schedule/schedule_N-03_C-updated_I-006.xlsx
+++ b/schedule/schedule_N-03_C-updated_I-006.xlsx
@@ -190,43 +190,43 @@
     <t>T10050</t>
   </si>
   <si>
+    <t>S10070</t>
+  </si>
+  <si>
     <t>T10060</t>
   </si>
   <si>
     <t>F20040</t>
   </si>
   <si>
-    <t>S10070</t>
-  </si>
-  <si>
     <t>T10070</t>
   </si>
   <si>
     <t>F20050</t>
   </si>
   <si>
+    <t>S11010</t>
+  </si>
+  <si>
     <t>T10080</t>
   </si>
   <si>
     <t>F20051</t>
   </si>
   <si>
-    <t>S11010</t>
-  </si>
-  <si>
     <t>T10090</t>
   </si>
   <si>
     <t>F20060</t>
   </si>
   <si>
+    <t>S11020</t>
+  </si>
+  <si>
     <t>W10010</t>
   </si>
   <si>
     <t>F20070</t>
-  </si>
-  <si>
-    <t>S11020</t>
   </si>
   <si>
     <t>W10020</t>
@@ -725,13 +725,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY36"/>
+  <dimension ref="A1:AZ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -882,8 +882,11 @@
       <c r="AY1" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:51">
+      <c r="AZ1" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -897,7 +900,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:52">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -916,125 +919,125 @@
       <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R3" t="s">
+        <v>69</v>
+      </c>
+      <c r="S3" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3" t="s">
+        <v>73</v>
+      </c>
+      <c r="U3" t="s">
+        <v>75</v>
+      </c>
+      <c r="V3" t="s">
+        <v>77</v>
+      </c>
+      <c r="W3" t="s">
+        <v>79</v>
+      </c>
+      <c r="X3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS3" t="s">
         <v>58</v>
       </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="AT3" t="s">
         <v>63</v>
       </c>
-      <c r="P3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="AU3" t="s">
         <v>68</v>
       </c>
-      <c r="R3" t="s">
-        <v>71</v>
-      </c>
-      <c r="S3" t="s">
-        <v>73</v>
-      </c>
-      <c r="T3" t="s">
-        <v>75</v>
-      </c>
-      <c r="U3" t="s">
-        <v>77</v>
-      </c>
-      <c r="V3" t="s">
-        <v>79</v>
-      </c>
-      <c r="W3" t="s">
-        <v>81</v>
-      </c>
-      <c r="X3" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU3" t="s">
+      <c r="AV3" t="s">
         <v>72</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AW3" t="s">
         <v>74</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AX3" t="s">
         <v>76</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>78</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AZ3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:52">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1053,125 +1056,125 @@
       <c r="L4" t="s">
         <v>57</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4" t="s">
+        <v>69</v>
+      </c>
+      <c r="S4" t="s">
+        <v>71</v>
+      </c>
+      <c r="T4" t="s">
+        <v>73</v>
+      </c>
+      <c r="U4" t="s">
+        <v>75</v>
+      </c>
+      <c r="V4" t="s">
+        <v>77</v>
+      </c>
+      <c r="W4" t="s">
+        <v>79</v>
+      </c>
+      <c r="X4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS4" t="s">
         <v>58</v>
       </c>
-      <c r="N4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="AT4" t="s">
         <v>63</v>
       </c>
-      <c r="P4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="AU4" t="s">
         <v>68</v>
       </c>
-      <c r="R4" t="s">
-        <v>71</v>
-      </c>
-      <c r="S4" t="s">
-        <v>73</v>
-      </c>
-      <c r="T4" t="s">
-        <v>75</v>
-      </c>
-      <c r="U4" t="s">
-        <v>77</v>
-      </c>
-      <c r="V4" t="s">
-        <v>79</v>
-      </c>
-      <c r="W4" t="s">
-        <v>81</v>
-      </c>
-      <c r="X4" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU4" t="s">
+      <c r="AV4" t="s">
         <v>72</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AW4" t="s">
         <v>74</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AX4" t="s">
         <v>76</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AY4" t="s">
         <v>78</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AZ4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:52">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1190,125 +1193,125 @@
       <c r="L5" t="s">
         <v>57</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>66</v>
+      </c>
+      <c r="R5" t="s">
+        <v>69</v>
+      </c>
+      <c r="S5" t="s">
+        <v>71</v>
+      </c>
+      <c r="T5" t="s">
+        <v>73</v>
+      </c>
+      <c r="U5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V5" t="s">
+        <v>77</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS5" t="s">
         <v>58</v>
       </c>
-      <c r="N5" t="s">
-        <v>61</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="AT5" t="s">
         <v>63</v>
       </c>
-      <c r="P5" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="AU5" t="s">
         <v>68</v>
       </c>
-      <c r="R5" t="s">
-        <v>71</v>
-      </c>
-      <c r="S5" t="s">
-        <v>73</v>
-      </c>
-      <c r="T5" t="s">
-        <v>75</v>
-      </c>
-      <c r="U5" t="s">
-        <v>77</v>
-      </c>
-      <c r="V5" t="s">
-        <v>79</v>
-      </c>
-      <c r="W5" t="s">
-        <v>81</v>
-      </c>
-      <c r="X5" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU5" t="s">
+      <c r="AV5" t="s">
         <v>72</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AW5" t="s">
         <v>74</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AX5" t="s">
         <v>76</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AY5" t="s">
         <v>78</v>
       </c>
-      <c r="AY5" t="s">
+      <c r="AZ5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:52">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1322,7 +1325,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:52">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1330,7 +1333,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:52">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1340,50 +1343,50 @@
       <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>43</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>49</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>52</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>53</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>55</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>56</v>
       </c>
-      <c r="R8" t="s">
-        <v>60</v>
-      </c>
       <c r="S8" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="T8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="U8" t="s">
+        <v>68</v>
+      </c>
+      <c r="V8" t="s">
         <v>72</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>74</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>76</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>78</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:52">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1393,61 +1396,61 @@
       <c r="E9" t="s">
         <v>39</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>43</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>49</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>52</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>53</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>55</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>56</v>
       </c>
-      <c r="R9" t="s">
-        <v>60</v>
-      </c>
       <c r="S9" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="T9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="U9" t="s">
+        <v>68</v>
+      </c>
+      <c r="V9" t="s">
         <v>72</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>74</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>76</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>78</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:52">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:52">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1460,50 +1463,50 @@
       <c r="J11" t="s">
         <v>39</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>43</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>49</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>52</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>53</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>55</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>56</v>
       </c>
-      <c r="Q11" t="s">
-        <v>60</v>
-      </c>
       <c r="R11" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="S11" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="T11" t="s">
+        <v>68</v>
+      </c>
+      <c r="U11" t="s">
         <v>72</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>74</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>76</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>78</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:52">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1516,26 +1519,26 @@
       <c r="D12" t="s">
         <v>47</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>48</v>
       </c>
-      <c r="M12" t="s">
-        <v>59</v>
-      </c>
       <c r="N12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" t="s">
         <v>62</v>
       </c>
-      <c r="O12" t="s">
-        <v>64</v>
-      </c>
       <c r="P12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q12" t="s">
         <v>67</v>
       </c>
-      <c r="Q12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:51">
+      <c r="R12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1551,23 +1554,23 @@
       <c r="E13" t="s">
         <v>48</v>
       </c>
-      <c r="M13" t="s">
-        <v>59</v>
-      </c>
       <c r="N13" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" t="s">
         <v>62</v>
       </c>
-      <c r="O13" t="s">
-        <v>64</v>
-      </c>
       <c r="P13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q13" t="s">
         <v>67</v>
       </c>
-      <c r="Q13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:51">
+      <c r="R13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1593,31 +1596,31 @@
         <v>56</v>
       </c>
       <c r="N14" t="s">
-        <v>60</v>
-      </c>
-      <c r="P14" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="Q14" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="R14" t="s">
+        <v>68</v>
+      </c>
+      <c r="S14" t="s">
         <v>72</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>74</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>76</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>78</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:52">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1643,31 +1646,31 @@
         <v>56</v>
       </c>
       <c r="N15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P15" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="R15" t="s">
+        <v>68</v>
+      </c>
+      <c r="S15" t="s">
         <v>72</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>74</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>76</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>78</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:52">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1693,31 +1696,31 @@
         <v>56</v>
       </c>
       <c r="M16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="R16" t="s">
+        <v>68</v>
+      </c>
+      <c r="S16" t="s">
         <v>72</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>74</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>76</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>78</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:51">
+    <row r="17" spans="1:52">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1733,128 +1736,128 @@
       <c r="J17" t="s">
         <v>54</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>57</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
+        <v>59</v>
+      </c>
+      <c r="O17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>66</v>
+      </c>
+      <c r="R17" t="s">
+        <v>69</v>
+      </c>
+      <c r="S17" t="s">
+        <v>71</v>
+      </c>
+      <c r="T17" t="s">
+        <v>73</v>
+      </c>
+      <c r="U17" t="s">
+        <v>75</v>
+      </c>
+      <c r="V17" t="s">
+        <v>77</v>
+      </c>
+      <c r="W17" t="s">
+        <v>79</v>
+      </c>
+      <c r="X17" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS17" t="s">
         <v>58</v>
       </c>
-      <c r="N17" t="s">
-        <v>61</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="AT17" t="s">
         <v>63</v>
       </c>
-      <c r="P17" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q17" t="s">
+      <c r="AU17" t="s">
         <v>68</v>
       </c>
-      <c r="R17" t="s">
-        <v>71</v>
-      </c>
-      <c r="S17" t="s">
-        <v>73</v>
-      </c>
-      <c r="T17" t="s">
-        <v>75</v>
-      </c>
-      <c r="U17" t="s">
-        <v>77</v>
-      </c>
-      <c r="V17" t="s">
-        <v>79</v>
-      </c>
-      <c r="W17" t="s">
-        <v>81</v>
-      </c>
-      <c r="X17" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>55</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU17" t="s">
+      <c r="AV17" t="s">
         <v>72</v>
       </c>
-      <c r="AV17" t="s">
+      <c r="AW17" t="s">
         <v>74</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="AX17" t="s">
         <v>76</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="AY17" t="s">
         <v>78</v>
       </c>
-      <c r="AY17" t="s">
+      <c r="AZ17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:51">
+    <row r="18" spans="1:52">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1870,104 +1873,104 @@
       <c r="J18" t="s">
         <v>54</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>57</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
+        <v>59</v>
+      </c>
+      <c r="O18" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>66</v>
+      </c>
+      <c r="R18" t="s">
+        <v>69</v>
+      </c>
+      <c r="S18" t="s">
+        <v>71</v>
+      </c>
+      <c r="T18" t="s">
+        <v>73</v>
+      </c>
+      <c r="U18" t="s">
+        <v>75</v>
+      </c>
+      <c r="V18" t="s">
+        <v>77</v>
+      </c>
+      <c r="W18" t="s">
+        <v>79</v>
+      </c>
+      <c r="X18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK18" t="s">
         <v>58</v>
       </c>
-      <c r="N18" t="s">
-        <v>61</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="AL18" t="s">
         <v>63</v>
       </c>
-      <c r="P18" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q18" t="s">
+      <c r="AM18" t="s">
         <v>68</v>
       </c>
-      <c r="R18" t="s">
-        <v>71</v>
-      </c>
-      <c r="S18" t="s">
-        <v>73</v>
-      </c>
-      <c r="T18" t="s">
-        <v>75</v>
-      </c>
-      <c r="U18" t="s">
-        <v>77</v>
-      </c>
-      <c r="V18" t="s">
-        <v>79</v>
-      </c>
-      <c r="W18" t="s">
-        <v>81</v>
-      </c>
-      <c r="X18" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM18" t="s">
+      <c r="AN18" t="s">
         <v>72</v>
       </c>
-      <c r="AN18" t="s">
+      <c r="AO18" t="s">
         <v>74</v>
       </c>
-      <c r="AO18" t="s">
+      <c r="AP18" t="s">
         <v>76</v>
       </c>
-      <c r="AP18" t="s">
+      <c r="AQ18" t="s">
         <v>78</v>
       </c>
-      <c r="AQ18" t="s">
+      <c r="AR18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:51">
+    <row r="19" spans="1:52">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1983,26 +1986,26 @@
       <c r="J19" t="s">
         <v>47</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>48</v>
       </c>
-      <c r="M19" t="s">
-        <v>59</v>
-      </c>
       <c r="N19" t="s">
+        <v>60</v>
+      </c>
+      <c r="O19" t="s">
         <v>62</v>
       </c>
-      <c r="O19" t="s">
-        <v>64</v>
-      </c>
       <c r="P19" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q19" t="s">
         <v>67</v>
       </c>
-      <c r="Q19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:51">
+      <c r="R19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2021,23 +2024,23 @@
       <c r="L20" t="s">
         <v>48</v>
       </c>
-      <c r="M20" t="s">
-        <v>59</v>
-      </c>
       <c r="N20" t="s">
+        <v>60</v>
+      </c>
+      <c r="O20" t="s">
         <v>62</v>
       </c>
-      <c r="O20" t="s">
-        <v>64</v>
-      </c>
       <c r="P20" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q20" t="s">
         <v>67</v>
       </c>
-      <c r="Q20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:51">
+      <c r="R20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -2056,23 +2059,23 @@
       <c r="L21" t="s">
         <v>48</v>
       </c>
-      <c r="M21" t="s">
-        <v>59</v>
-      </c>
       <c r="N21" t="s">
+        <v>60</v>
+      </c>
+      <c r="O21" t="s">
         <v>62</v>
       </c>
-      <c r="O21" t="s">
-        <v>64</v>
-      </c>
       <c r="P21" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q21" t="s">
         <v>67</v>
       </c>
-      <c r="Q21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:51">
+      <c r="R21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2098,31 +2101,31 @@
         <v>56</v>
       </c>
       <c r="M22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q22" t="s">
-        <v>70</v>
-      </c>
-      <c r="R22" t="s">
+        <v>68</v>
+      </c>
+      <c r="S22" t="s">
         <v>72</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>74</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>76</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>78</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:51">
+    <row r="23" spans="1:52">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2148,31 +2151,31 @@
         <v>56</v>
       </c>
       <c r="M23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q23" t="s">
-        <v>70</v>
-      </c>
-      <c r="R23" t="s">
+        <v>68</v>
+      </c>
+      <c r="S23" t="s">
         <v>72</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>74</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>76</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>78</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:51">
+    <row r="24" spans="1:52">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2188,80 +2191,80 @@
       <c r="K24" t="s">
         <v>54</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>57</v>
       </c>
-      <c r="M24" t="s">
-        <v>58</v>
-      </c>
       <c r="N24" t="s">
+        <v>59</v>
+      </c>
+      <c r="O24" t="s">
         <v>61</v>
       </c>
-      <c r="O24" t="s">
-        <v>63</v>
-      </c>
       <c r="P24" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q24" t="s">
         <v>66</v>
       </c>
-      <c r="Q24" t="s">
-        <v>68</v>
-      </c>
       <c r="R24" t="s">
+        <v>69</v>
+      </c>
+      <c r="S24" t="s">
         <v>71</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>73</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>75</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>77</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>79</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>81</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>82</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>83</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>84</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
         <v>85</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
         <v>87</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>38</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>51</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AH24" t="s">
         <v>91</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="AI24" t="s">
         <v>93</v>
       </c>
-      <c r="AI24" t="s">
+      <c r="AJ24" t="s">
         <v>95</v>
       </c>
-      <c r="AJ24" t="s">
+      <c r="AK24" t="s">
         <v>97</v>
       </c>
-      <c r="AK24" t="s">
+      <c r="AL24" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:51">
+    <row r="25" spans="1:52">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -2277,98 +2280,98 @@
       <c r="K25" t="s">
         <v>54</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>57</v>
       </c>
-      <c r="M25" t="s">
-        <v>58</v>
-      </c>
       <c r="N25" t="s">
+        <v>59</v>
+      </c>
+      <c r="O25" t="s">
         <v>61</v>
       </c>
-      <c r="O25" t="s">
-        <v>63</v>
-      </c>
       <c r="P25" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q25" t="s">
         <v>66</v>
       </c>
-      <c r="Q25" t="s">
-        <v>68</v>
-      </c>
       <c r="R25" t="s">
+        <v>69</v>
+      </c>
+      <c r="S25" t="s">
         <v>71</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>73</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>75</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>77</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>79</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>81</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>82</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>83</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>84</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AB25" t="s">
         <v>85</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AC25" t="s">
         <v>38</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AD25" t="s">
         <v>88</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>89</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>90</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>92</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AH25" t="s">
         <v>94</v>
       </c>
-      <c r="AH25" t="s">
+      <c r="AI25" t="s">
         <v>96</v>
       </c>
-      <c r="AI25" t="s">
+      <c r="AJ25" t="s">
         <v>98</v>
       </c>
-      <c r="AJ25" t="s">
+      <c r="AK25" t="s">
         <v>100</v>
       </c>
-      <c r="AK25" t="s">
+      <c r="AL25" t="s">
         <v>101</v>
       </c>
-      <c r="AL25" t="s">
+      <c r="AM25" t="s">
         <v>103</v>
       </c>
-      <c r="AM25" t="s">
+      <c r="AN25" t="s">
         <v>105</v>
       </c>
-      <c r="AN25" t="s">
+      <c r="AO25" t="s">
         <v>107</v>
       </c>
-      <c r="AO25" t="s">
+      <c r="AP25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:51">
+    <row r="26" spans="1:52">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -2384,119 +2387,119 @@
       <c r="K26" t="s">
         <v>54</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>57</v>
       </c>
-      <c r="M26" t="s">
-        <v>58</v>
-      </c>
       <c r="N26" t="s">
+        <v>59</v>
+      </c>
+      <c r="O26" t="s">
         <v>61</v>
       </c>
-      <c r="O26" t="s">
-        <v>63</v>
-      </c>
       <c r="P26" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q26" t="s">
         <v>66</v>
       </c>
-      <c r="Q26" t="s">
-        <v>68</v>
-      </c>
       <c r="R26" t="s">
+        <v>69</v>
+      </c>
+      <c r="S26" t="s">
         <v>71</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>73</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>75</v>
       </c>
-      <c r="U26" t="s">
+      <c r="V26" t="s">
         <v>77</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>79</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>81</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>82</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>83</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>84</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AB26" t="s">
         <v>85</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AC26" t="s">
         <v>86</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AD26" t="s">
         <v>87</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>38</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>51</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>91</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AH26" t="s">
         <v>93</v>
       </c>
-      <c r="AH26" t="s">
+      <c r="AI26" t="s">
         <v>95</v>
       </c>
-      <c r="AI26" t="s">
+      <c r="AJ26" t="s">
         <v>97</v>
       </c>
-      <c r="AJ26" t="s">
+      <c r="AK26" t="s">
         <v>99</v>
       </c>
-      <c r="AK26" t="s">
+      <c r="AL26" t="s">
         <v>102</v>
       </c>
-      <c r="AL26" t="s">
+      <c r="AM26" t="s">
         <v>104</v>
       </c>
-      <c r="AM26" t="s">
+      <c r="AN26" t="s">
         <v>106</v>
       </c>
-      <c r="AN26" t="s">
+      <c r="AO26" t="s">
         <v>108</v>
       </c>
-      <c r="AO26" t="s">
+      <c r="AP26" t="s">
         <v>110</v>
       </c>
-      <c r="AP26" t="s">
+      <c r="AQ26" t="s">
         <v>111</v>
       </c>
-      <c r="AQ26" t="s">
+      <c r="AR26" t="s">
         <v>112</v>
       </c>
-      <c r="AR26" t="s">
+      <c r="AS26" t="s">
         <v>113</v>
       </c>
-      <c r="AS26" t="s">
+      <c r="AT26" t="s">
         <v>114</v>
       </c>
-      <c r="AT26" t="s">
+      <c r="AU26" t="s">
         <v>115</v>
       </c>
-      <c r="AU26" t="s">
+      <c r="AV26" t="s">
         <v>116</v>
       </c>
-      <c r="AV26" t="s">
+      <c r="AW26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:51">
+    <row r="27" spans="1:52">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -2512,47 +2515,47 @@
       <c r="K27" t="s">
         <v>43</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>49</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>52</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>53</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>55</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>56</v>
       </c>
-      <c r="Q27" t="s">
-        <v>60</v>
-      </c>
       <c r="R27" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="S27" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="T27" t="s">
+        <v>68</v>
+      </c>
+      <c r="U27" t="s">
         <v>72</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>74</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>76</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>78</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:51">
+    <row r="28" spans="1:52">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -2568,26 +2571,26 @@
       <c r="K28" t="s">
         <v>47</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>48</v>
       </c>
-      <c r="M28" t="s">
-        <v>59</v>
-      </c>
       <c r="N28" t="s">
+        <v>60</v>
+      </c>
+      <c r="O28" t="s">
         <v>62</v>
       </c>
-      <c r="O28" t="s">
-        <v>64</v>
-      </c>
       <c r="P28" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q28" t="s">
         <v>67</v>
       </c>
-      <c r="Q28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:51">
+      <c r="R28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -2603,26 +2606,26 @@
       <c r="K29" t="s">
         <v>47</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>48</v>
       </c>
-      <c r="M29" t="s">
-        <v>59</v>
-      </c>
       <c r="N29" t="s">
+        <v>60</v>
+      </c>
+      <c r="O29" t="s">
         <v>62</v>
       </c>
-      <c r="O29" t="s">
-        <v>64</v>
-      </c>
       <c r="P29" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q29" t="s">
         <v>67</v>
       </c>
-      <c r="Q29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:51">
+      <c r="R29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:52">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -2638,26 +2641,26 @@
       <c r="K30" t="s">
         <v>47</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>48</v>
       </c>
-      <c r="M30" t="s">
-        <v>59</v>
-      </c>
       <c r="N30" t="s">
+        <v>60</v>
+      </c>
+      <c r="O30" t="s">
         <v>62</v>
       </c>
-      <c r="O30" t="s">
-        <v>64</v>
-      </c>
       <c r="P30" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q30" t="s">
         <v>67</v>
       </c>
-      <c r="Q30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:51">
+      <c r="R30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:52">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -2670,26 +2673,26 @@
       <c r="K31" t="s">
         <v>47</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>48</v>
       </c>
-      <c r="M31" t="s">
-        <v>59</v>
-      </c>
       <c r="N31" t="s">
+        <v>60</v>
+      </c>
+      <c r="O31" t="s">
         <v>62</v>
       </c>
-      <c r="O31" t="s">
-        <v>64</v>
-      </c>
       <c r="P31" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q31" t="s">
         <v>67</v>
       </c>
-      <c r="Q31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:51">
+      <c r="R31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -2715,31 +2718,31 @@
         <v>56</v>
       </c>
       <c r="N32" t="s">
-        <v>60</v>
-      </c>
-      <c r="R32" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="S32" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="T32" t="s">
+        <v>68</v>
+      </c>
+      <c r="U32" t="s">
         <v>72</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>74</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>76</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>78</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -2749,169 +2752,169 @@
       <c r="F33" t="s">
         <v>39</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>43</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>49</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>52</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>53</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>55</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>56</v>
       </c>
-      <c r="Q33" t="s">
-        <v>60</v>
-      </c>
       <c r="R33" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="S33" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="T33" t="s">
+        <v>68</v>
+      </c>
+      <c r="U33" t="s">
         <v>72</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>74</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>76</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>78</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E34" t="s">
         <v>38</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>51</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>39</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>43</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>49</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>52</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>53</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>55</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>56</v>
       </c>
-      <c r="Q34" t="s">
-        <v>60</v>
-      </c>
       <c r="R34" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="S34" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="T34" t="s">
+        <v>68</v>
+      </c>
+      <c r="U34" t="s">
         <v>72</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>74</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>76</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>78</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E35" t="s">
         <v>38</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>51</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>39</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>43</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>49</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>52</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>53</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>55</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>56</v>
       </c>
-      <c r="Q35" t="s">
-        <v>60</v>
-      </c>
       <c r="R35" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="S35" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="T35" t="s">
+        <v>68</v>
+      </c>
+      <c r="U35" t="s">
         <v>72</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>74</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>76</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>78</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:25">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E36" t="s">
         <v>38</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>51</v>
       </c>
     </row>
